--- a/mlzjdb/games.xlsx
+++ b/mlzjdb/games.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Professor.T\Desktop\mlzjdb\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="13245"/>
   </bookViews>
@@ -15,9 +10,9 @@
     <sheet name="games" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>id</t>
   </si>
@@ -131,13 +126,36 @@
   <si>
     <t>KO赔率</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bettinggame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞猜中的比赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51KG</t>
+  </si>
+  <si>
+    <t>52KG</t>
+  </si>
+  <si>
+    <t>53KG</t>
+  </si>
+  <si>
+    <t>54KG</t>
+  </si>
+  <si>
+    <t>60KG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,7 +261,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -278,7 +296,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -455,37 +473,38 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="16.5" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -499,37 +518,40 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="16.5" customHeight="1">
       <c r="B2" t="s">
         <v>18</v>
       </c>
@@ -540,37 +562,40 @@
         <v>20</v>
       </c>
       <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>24</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>25</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>26</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>27</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>28</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>29</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="16.5" customHeight="1">
       <c r="A3">
         <v>3</v>
       </c>
@@ -584,39 +609,42 @@
         <v>15</v>
       </c>
       <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
         <v>201801</v>
       </c>
-      <c r="F3">
-        <v>127</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1">
         <v>43266.041666666664</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>999999</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
       <c r="J3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
         <v>1.25</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>9.99</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="16.5" customHeight="1">
       <c r="A4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -628,34 +656,307 @@
         <v>17</v>
       </c>
       <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>201802</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4" s="1">
+        <v>43266.041666666664</v>
+      </c>
+      <c r="I4">
+        <v>999999</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1.99</v>
+      </c>
+      <c r="O4">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="16.5" customHeight="1">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43281.819340277776</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
         <v>201801</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1">
         <v>43266.041666666664</v>
       </c>
-      <c r="H4">
+      <c r="I5">
         <v>999999</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1.25</v>
+      </c>
+      <c r="O5">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="16.5" customHeight="1">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43281.819340277776</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>201801</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>43266.041666666664</v>
+      </c>
+      <c r="I6">
+        <v>999999</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
         <v>2</v>
       </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1.99</v>
-      </c>
-      <c r="N4">
-        <v>1.01</v>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1.25</v>
+      </c>
+      <c r="O6">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="16.5" customHeight="1">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43281.819340277776</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>201801</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>43266.041666666664</v>
+      </c>
+      <c r="I7">
+        <v>999999</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>8</v>
+      </c>
+      <c r="L7">
+        <v>7</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1.25</v>
+      </c>
+      <c r="O7">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="16.5" customHeight="1">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1">
+        <v>43281.819340277776</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>201801</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>43266.041666666664</v>
+      </c>
+      <c r="I8">
+        <v>999999</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>10</v>
+      </c>
+      <c r="L8">
+        <v>9</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>1.25</v>
+      </c>
+      <c r="O8">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="16.5" customHeight="1">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43281.819340277776</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>201801</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>43266.041666666664</v>
+      </c>
+      <c r="I9">
+        <v>999999</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>12</v>
+      </c>
+      <c r="L9">
+        <v>11</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>1.25</v>
+      </c>
+      <c r="O9">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="16.5" customHeight="1">
+      <c r="A10">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43289.820115740738</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>201802</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10" s="1">
+        <v>43289.820115740738</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -665,12 +966,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/mlzjdb/games.xlsx
+++ b/mlzjdb/games.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files (x86)\phpstudy\PHPTutorial\WWW\mytest\web-study-git\mlzjdb\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="13245"/>
   </bookViews>
@@ -10,9 +15,9 @@
     <sheet name="games" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -58,12 +63,6 @@
     <t>playWay</t>
   </si>
   <si>
-    <t>odds1</t>
-  </si>
-  <si>
-    <t>odds2</t>
-  </si>
-  <si>
     <t>世界巡回赛-莫斯科站</t>
   </si>
   <si>
@@ -120,10 +119,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>猜胜负赔率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>KO赔率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -149,13 +144,59 @@
   </si>
   <si>
     <t>60KG</t>
+  </si>
+  <si>
+    <t>allBet1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allBet2</t>
+  </si>
+  <si>
+    <t>猜胜负下注总金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KO下注总金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>62KG</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R胜赔率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L胜赔率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NKO赔率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>odds1_1</t>
+  </si>
+  <si>
+    <t>odds1_2</t>
+  </si>
+  <si>
+    <t>odds2_1</t>
+  </si>
+  <si>
+    <t>odds2_2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -473,21 +514,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
@@ -501,10 +542,11 @@
     <col min="10" max="12" width="9" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="10.375" customWidth="1"/>
+    <col min="17" max="17" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="16.5" customHeight="1">
+    <row r="1" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -518,7 +560,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -545,124 +587,109 @@
         <v>11</v>
       </c>
       <c r="N1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>47</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="16.5" customHeight="1">
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="C4" s="1">
         <v>43281.819340277776</v>
       </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
         <v>201801</v>
       </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
-      <c r="H3" s="1">
-        <v>43266.041666666664</v>
-      </c>
-      <c r="I3">
-        <v>999999</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>6</v>
-      </c>
-      <c r="L3">
-        <v>5</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>1.25</v>
-      </c>
-      <c r="O3">
-        <v>9.99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A4">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1">
-        <v>43289.820115740738</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>201802</v>
-      </c>
       <c r="G4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H4" s="1">
         <v>43266.041666666664</v>
@@ -680,27 +707,41 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1.99</v>
+        <v>1.25</v>
       </c>
       <c r="O4">
-        <v>1.01</v>
+        <v>9.99</v>
+      </c>
+      <c r="P4">
+        <v>1.25</v>
+      </c>
+      <c r="Q4">
+        <v>9.99</v>
+      </c>
+      <c r="R4">
+        <f>90000+A4</f>
+        <v>90007</v>
+      </c>
+      <c r="S4">
+        <f>80000+A4</f>
+        <v>80007</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="16.5" customHeight="1">
+    <row r="5" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1">
         <v>43281.819340277776</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -715,7 +756,7 @@
         <v>43266.041666666664</v>
       </c>
       <c r="I5">
-        <v>999999</v>
+        <v>999998</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -735,19 +776,33 @@
       <c r="O5">
         <v>9.99</v>
       </c>
+      <c r="P5">
+        <v>1.25</v>
+      </c>
+      <c r="Q5">
+        <v>9.99</v>
+      </c>
+      <c r="R5">
+        <f>90000+A5</f>
+        <v>90002</v>
+      </c>
+      <c r="S5">
+        <f>80000+A5</f>
+        <v>80002</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" ht="16.5" customHeight="1">
+    <row r="6" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1">
         <v>43281.819340277776</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -756,22 +811,22 @@
         <v>201801</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H6" s="1">
         <v>43266.041666666664</v>
       </c>
       <c r="I6">
-        <v>999999</v>
+        <v>999997</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -782,19 +837,33 @@
       <c r="O6">
         <v>9.99</v>
       </c>
+      <c r="P6">
+        <v>1.25</v>
+      </c>
+      <c r="Q6">
+        <v>9.99</v>
+      </c>
+      <c r="R6">
+        <f t="shared" ref="R6:R12" si="0">90000+A6</f>
+        <v>90003</v>
+      </c>
+      <c r="S6">
+        <f t="shared" ref="S6:S12" si="1">80000+A6</f>
+        <v>80003</v>
+      </c>
     </row>
-    <row r="7" spans="1:15" ht="16.5" customHeight="1">
+    <row r="7" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1">
         <v>43281.819340277776</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -809,7 +878,7 @@
         <v>43266.041666666664</v>
       </c>
       <c r="I7">
-        <v>999999</v>
+        <v>999996</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -829,28 +898,42 @@
       <c r="O7">
         <v>9.99</v>
       </c>
+      <c r="P7">
+        <v>1.25</v>
+      </c>
+      <c r="Q7">
+        <v>9.99</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>90004</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="1"/>
+        <v>80004</v>
+      </c>
     </row>
-    <row r="8" spans="1:15" ht="16.5" customHeight="1">
+    <row r="8" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="1">
-        <v>43281.819340277776</v>
+        <v>43289.820115740738</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>201801</v>
+        <v>201802</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H8" s="1">
         <v>43266.041666666664</v>
@@ -862,33 +945,47 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8">
-        <v>1.25</v>
+        <v>1.99</v>
       </c>
       <c r="O8">
-        <v>9.99</v>
+        <v>1.01</v>
+      </c>
+      <c r="P8">
+        <v>1.99</v>
+      </c>
+      <c r="Q8">
+        <v>1.01</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>90010</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="1"/>
+        <v>80010</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="16.5" customHeight="1">
+    <row r="9" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1">
         <v>43281.819340277776</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -903,75 +1000,238 @@
         <v>43266.041666666664</v>
       </c>
       <c r="I9">
-        <v>999999</v>
+        <v>999995</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
+        <v>10</v>
+      </c>
+      <c r="L9">
+        <v>9</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>1.25</v>
+      </c>
+      <c r="O9">
+        <v>9.99</v>
+      </c>
+      <c r="P9">
+        <v>1.25</v>
+      </c>
+      <c r="Q9">
+        <v>9.99</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>90005</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="1"/>
+        <v>80005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="L9">
+      <c r="C10" s="1">
+        <v>43281.819340277776</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>201801</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>43266.041666666664</v>
+      </c>
+      <c r="I10">
+        <v>999994</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>12</v>
+      </c>
+      <c r="L10">
         <v>11</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>1.25</v>
-      </c>
-      <c r="O9">
-        <v>9.99</v>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>1.25</v>
+      </c>
+      <c r="O10">
+        <v>9.99</v>
+      </c>
+      <c r="P10">
+        <v>1.25</v>
+      </c>
+      <c r="Q10">
+        <v>9.99</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="0"/>
+        <v>90006</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="1"/>
+        <v>80006</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A10">
+    <row r="11" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>12</v>
       </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1">
         <v>43289.820115740738</v>
       </c>
-      <c r="D10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
         <v>201802</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <v>2</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H11" s="1">
         <v>43289.820115740738</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
         <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>1.25</v>
+      </c>
+      <c r="O11">
+        <v>9.99</v>
+      </c>
+      <c r="P11">
+        <v>1.25</v>
+      </c>
+      <c r="Q11">
+        <v>9.99</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="0"/>
+        <v>90012</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="1"/>
+        <v>80012</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1">
+        <v>43289.820115740738</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>201802</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12" s="1">
+        <v>43289.820115740738</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>1.25</v>
+      </c>
+      <c r="O12">
+        <v>9.99</v>
+      </c>
+      <c r="P12">
+        <v>1.25</v>
+      </c>
+      <c r="Q12">
+        <v>9.99</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="0"/>
+        <v>90024</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="1"/>
+        <v>80024</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/mlzjdb/games.xlsx
+++ b/mlzjdb/games.xlsx
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="games" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Comment" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -190,6 +190,34 @@
   </si>
   <si>
     <t>odds2_2</t>
+  </si>
+  <si>
+    <t>无结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>winL,NKO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>winR,NKO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>winL,KO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>winR,KO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比赛结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -302,7 +330,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -337,7 +365,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -525,7 +553,7 @@
   <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O1048576"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1227,13 +1255,65 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/mlzjdb/games.xlsx
+++ b/mlzjdb/games.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="13245"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="13245" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="games" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="63">
   <si>
     <t>id</t>
   </si>
@@ -217,6 +217,38 @@
   </si>
   <si>
     <t>result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>games表字段名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家下注ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resultTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开奖时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>winL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>winR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NKO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -550,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -574,7 +606,7 @@
     <col min="17" max="17" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -632,8 +664,11 @@
       <c r="S1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>16</v>
       </c>
@@ -688,8 +723,11 @@
       <c r="S2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R3" t="s">
         <v>40</v>
       </c>
@@ -697,7 +735,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>7</v>
       </c>
@@ -757,8 +795,11 @@
         <f>80000+A4</f>
         <v>80007</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T4" s="1">
+        <v>43281.819340277776</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -818,8 +859,11 @@
         <f>80000+A5</f>
         <v>80002</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T5" s="1">
+        <v>43281.819340277776</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -879,8 +923,11 @@
         <f t="shared" ref="S6:S12" si="1">80000+A6</f>
         <v>80003</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T6" s="1">
+        <v>43281.819340277776</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -940,8 +987,11 @@
         <f t="shared" si="1"/>
         <v>80004</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T7" s="1">
+        <v>43281.819340277776</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>10</v>
       </c>
@@ -1001,8 +1051,11 @@
         <f t="shared" si="1"/>
         <v>80010</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T8" s="1">
+        <v>43289.820115740738</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
@@ -1062,8 +1115,11 @@
         <f t="shared" si="1"/>
         <v>80005</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T9" s="1">
+        <v>43281.819340277776</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -1123,8 +1179,11 @@
         <f t="shared" si="1"/>
         <v>80006</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T10" s="1">
+        <v>43281.819340277776</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>12</v>
       </c>
@@ -1184,8 +1243,11 @@
         <f t="shared" si="1"/>
         <v>80012</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T11" s="1">
+        <v>43289.820115740738</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>24</v>
       </c>
@@ -1244,6 +1306,9 @@
       <c r="S12">
         <f t="shared" si="1"/>
         <v>80024</v>
+      </c>
+      <c r="T12" s="1">
+        <v>43289.820115740738</v>
       </c>
     </row>
   </sheetData>
@@ -1255,55 +1320,113 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C6"/>
+  <dimension ref="B1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>54</v>
       </c>
       <c r="C1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>4</v>
       </c>
